--- a/StructureDefinition-VMPPModel.xlsx
+++ b/StructureDefinition-VMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-07T15:41:09+00:00</t>
+    <t>2022-05-09T12:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
